--- a/Microgrid-Model/testDataTempSolar.xlsx
+++ b/Microgrid-Model/testDataTempSolar.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewboland/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewboland/Documents/MATLAB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{169BE276-B4F7-154F-89B1-FDF20C381F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C72DC19-AC20-834B-AD85-7CB8CF747EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44500" yWindow="4480" windowWidth="28040" windowHeight="17440" xr2:uid="{70FF1BFF-E7BC-0F46-9FBD-B3603A45E446}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{70FF1BFF-E7BC-0F46-9FBD-B3603A45E446}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="POWER_Point_Hourly_20240212_20240216_034d0050N_080d9666W_LST" localSheetId="0">Sheet1!$A$1:$E$97</definedName>
+    <definedName name="POWER_Point_Hourly_20240212_20240216_034d0050N_080d9666W_LST" localSheetId="0">Sheet1!$A$1:$E$73</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{1C91EC7D-F814-2C41-B137-603217EB5A57}" name="POWER_Point_Hourly_20240212_20240216_034d0050N_080d9666W_LST" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/andrewboland/Downloads/POWER_Point_Hourly_20240212_20240216_034d0050N_080d9666W_LST.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/andrewboland/Downloads/POWER_Point_Hourly_20240212_20240216_034d0050N_080d9666W_LST.csv" tab="0" comma="1">
       <textFields count="5">
         <textField type="text"/>
         <textField/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="6">
   <si>
     <t>YEAR</t>
   </si>
@@ -449,9 +449,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACBFB87-A722-C04D-92AC-8FC6825CC293}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="N65" sqref="N65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1703,414 +1705,6 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74">
-        <v>2</v>
-      </c>
-      <c r="C74">
-        <v>15</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>5.55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="C75">
-        <v>15</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76">
-        <v>2</v>
-      </c>
-      <c r="C76">
-        <v>15</v>
-      </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-      <c r="E76">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77">
-        <v>2</v>
-      </c>
-      <c r="C77">
-        <v>15</v>
-      </c>
-      <c r="D77">
-        <v>3</v>
-      </c>
-      <c r="E77">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="C78">
-        <v>15</v>
-      </c>
-      <c r="D78">
-        <v>4</v>
-      </c>
-      <c r="E78">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79">
-        <v>2</v>
-      </c>
-      <c r="C79">
-        <v>15</v>
-      </c>
-      <c r="D79">
-        <v>5</v>
-      </c>
-      <c r="E79">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B80">
-        <v>2</v>
-      </c>
-      <c r="C80">
-        <v>15</v>
-      </c>
-      <c r="D80">
-        <v>6</v>
-      </c>
-      <c r="E80">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81">
-        <v>2</v>
-      </c>
-      <c r="C81">
-        <v>15</v>
-      </c>
-      <c r="D81">
-        <v>7</v>
-      </c>
-      <c r="E81">
-        <v>4.26</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="C82">
-        <v>15</v>
-      </c>
-      <c r="D82">
-        <v>8</v>
-      </c>
-      <c r="E82">
-        <v>7.91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B83">
-        <v>2</v>
-      </c>
-      <c r="C83">
-        <v>15</v>
-      </c>
-      <c r="D83">
-        <v>9</v>
-      </c>
-      <c r="E83">
-        <v>10.98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84">
-        <v>2</v>
-      </c>
-      <c r="C84">
-        <v>15</v>
-      </c>
-      <c r="D84">
-        <v>10</v>
-      </c>
-      <c r="E84">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B85">
-        <v>2</v>
-      </c>
-      <c r="C85">
-        <v>15</v>
-      </c>
-      <c r="D85">
-        <v>11</v>
-      </c>
-      <c r="E85">
-        <v>16.61</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86">
-        <v>2</v>
-      </c>
-      <c r="C86">
-        <v>15</v>
-      </c>
-      <c r="D86">
-        <v>12</v>
-      </c>
-      <c r="E86">
-        <v>17.37</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87">
-        <v>2</v>
-      </c>
-      <c r="C87">
-        <v>15</v>
-      </c>
-      <c r="D87">
-        <v>13</v>
-      </c>
-      <c r="E87">
-        <v>17.71</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88">
-        <v>2</v>
-      </c>
-      <c r="C88">
-        <v>15</v>
-      </c>
-      <c r="D88">
-        <v>14</v>
-      </c>
-      <c r="E88">
-        <v>17.7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89">
-        <v>2</v>
-      </c>
-      <c r="C89">
-        <v>15</v>
-      </c>
-      <c r="D89">
-        <v>15</v>
-      </c>
-      <c r="E89">
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90">
-        <v>2</v>
-      </c>
-      <c r="C90">
-        <v>15</v>
-      </c>
-      <c r="D90">
-        <v>16</v>
-      </c>
-      <c r="E90">
-        <v>16.27</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91">
-        <v>2</v>
-      </c>
-      <c r="C91">
-        <v>15</v>
-      </c>
-      <c r="D91">
-        <v>17</v>
-      </c>
-      <c r="E91">
-        <v>13.83</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92">
-        <v>2</v>
-      </c>
-      <c r="C92">
-        <v>15</v>
-      </c>
-      <c r="D92">
-        <v>18</v>
-      </c>
-      <c r="E92">
-        <v>12.01</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B93">
-        <v>2</v>
-      </c>
-      <c r="C93">
-        <v>15</v>
-      </c>
-      <c r="D93">
-        <v>19</v>
-      </c>
-      <c r="E93">
-        <v>11.17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94">
-        <v>2</v>
-      </c>
-      <c r="C94">
-        <v>15</v>
-      </c>
-      <c r="D94">
-        <v>20</v>
-      </c>
-      <c r="E94">
-        <v>10.44</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95">
-        <v>2</v>
-      </c>
-      <c r="C95">
-        <v>15</v>
-      </c>
-      <c r="D95">
-        <v>21</v>
-      </c>
-      <c r="E95">
-        <v>9.93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96">
-        <v>2</v>
-      </c>
-      <c r="C96">
-        <v>15</v>
-      </c>
-      <c r="D96">
-        <v>22</v>
-      </c>
-      <c r="E96">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97">
-        <v>2</v>
-      </c>
-      <c r="C97">
-        <v>15</v>
-      </c>
-      <c r="D97">
-        <v>23</v>
-      </c>
-      <c r="E97">
-        <v>8.7200000000000006</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
